--- a/wdc-page/structureddata/2018-12/stats/html-embedded-jsonld.xlsx
+++ b/wdc-page/structureddata/2018-12/stats/html-embedded-jsonld.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -21895,11 +21895,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1836"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
@@ -47615,7 +47617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
